--- a/biology/Botanique/Buis/Buis.xlsx
+++ b/biology/Botanique/Buis/Buis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buxus
 Buxus (les buis) est un genre de plantes dicotylédones de la famille des Buxacées qui regroupe environ 90 espèces originaires de tous les continents (distribution intercontinentale disjointe), présentes principalement dans les régions tropicales et subtropicales.
-Il s'agit de petits arbres ou d'arbustes à feuilles opposées persistantes. Certaines espèces exhalent une odeur caractéristique qui pourrait être due à un composé contenant un groupement thiol, le 4-méthyl-4-sulfanylpentan-2-one (4MSP), également identifié dans le sauvignon[1].
+Il s'agit de petits arbres ou d'arbustes à feuilles opposées persistantes. Certaines espèces exhalent une odeur caractéristique qui pourrait être due à un composé contenant un groupement thiol, le 4-méthyl-4-sulfanylpentan-2-one (4MSP), également identifié dans le sauvignon.
 Les principaux centres de diversification du genre se trouvent à Cuba et en Chine. Seules quelques espèces asiatiques et européennes peuvent résister au gel.
-Deux espèces sont indigènes en Europe. La première, le buis des Baléares (Buxus balearica), se trouverait encore à l'état sauvage en Andalousie. On en trouve quelques spécimens aux îles Baléares et en Sardaigne. L'autre espèce, très commune, le buis commun (Buxus sempervirens) se trouve dans toute l'Europe continentale et méditerranéenne. Buxus balearica, également appelé « buis de Port Mahon »[2], est peu utilisé en horticulture.
+Deux espèces sont indigènes en Europe. La première, le buis des Baléares (Buxus balearica), se trouverait encore à l'état sauvage en Andalousie. On en trouve quelques spécimens aux îles Baléares et en Sardaigne. L'autre espèce, très commune, le buis commun (Buxus sempervirens) se trouve dans toute l'Europe continentale et méditerranéenne. Buxus balearica, également appelé « buis de Port Mahon », est peu utilisé en horticulture.
 </t>
         </is>
       </c>
@@ -515,9 +527,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme latin buxus est un emprunt au grec πύξος (puksos), de même signification[3]. Le mot gaulois pour le buis était sans doute *buxso-[4]. Le grec pyxis « boite de buis » est devenu buxita en latin vulgaire, Xe siècle), puis boiste (ancien français, XIIe siècle) et enfin boîte.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme latin buxus est un emprunt au grec πύξος (puksos), de même signification. Le mot gaulois pour le buis était sans doute *buxso-. Le grec pyxis « boite de buis » est devenu buxita en latin vulgaire, Xe siècle), puis boiste (ancien français, XIIe siècle) et enfin boîte.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bois revêt un aspect brillant après polissage, ce qui en fait un matériau très utilisé en tabletterie, notamment pour faire des pièces d'échecs[5].
-Le buis a été très utilisé pour la fabrication des instruments à vent de la famille des bois par les tourneurs dès le XVIe siècle en Europe, et en basse Normandie plus particulièrement (flûte, clarinette, hautbois...)[6]. Cela a été la cause de sa raréfaction en France lorsque la demande de production d'instruments de loisirs et militaires a explosé au XIXe siècle. Le bois de buis peut être teint à l'eau-forte (acide nitrique) pour lui donner une robe plus foncée.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois revêt un aspect brillant après polissage, ce qui en fait un matériau très utilisé en tabletterie, notamment pour faire des pièces d'échecs.
+Le buis a été très utilisé pour la fabrication des instruments à vent de la famille des bois par les tourneurs dès le XVIe siècle en Europe, et en basse Normandie plus particulièrement (flûte, clarinette, hautbois...). Cela a été la cause de sa raréfaction en France lorsque la demande de production d'instruments de loisirs et militaires a explosé au XIXe siècle. Le bois de buis peut être teint à l'eau-forte (acide nitrique) pour lui donner une robe plus foncée.
 			Sculpture en buis
 			Sculpture en ronce de buis
 			Répliques de clarinette ancienne en buis
@@ -583,7 +599,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Avérée depuis 2008 mais suspectée depuis 2005, venant d'Asie, la pyrale du buis envahit progressivement toute la France au départ de plusieurs foyers possibles dont l'Île-de-France et l'Alsace. La Belgique est touchée en 2017.
 Sa chenille décime les populations de buis jusque parfois deux fois par an en dévorant les feuilles, ne laissant que les rameaux qui se dessèchent entraînant souvent la mort de l'arbuste.
@@ -615,14 +633,16 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Buxus sempervirens, le buis commun.
 			Buxus balearica.
 			Buxus microphylla.
 			Buxus wallichiana.
-Selon Catalogue of Life                                   (18 août 2015)[7] :
+Selon Catalogue of Life                                   (18 août 2015) :
 Buxus acuminata Müll. Arg.
 Buxus acunae A. Borhidi &amp; O. Muniz
 Buxus aneura Urb.
@@ -714,7 +734,7 @@
 Buxus sempervirens L. (buis commun)
 Buxus serpentinicola E. Köhler
 Buxus shaferi (Britt.) Urb.
-Buxus sinica (zh) (Rehder &amp; E. H. Wilson) M. Cheng, Fl. Reipubl[8]. (黄杨/黃楊) var. insularis
+Buxus sinica (zh) (Rehder &amp; E. H. Wilson) M. Cheng, Fl. Reipubl. (黄杨/黃楊) var. insularis
 Buxus stenophylla Hance
 Buxus subcolumnaris Muell. Arg
 Buxus triptera Eg.Köhler
@@ -723,7 +743,7 @@
 Buxus wallichiana Baill.
 Buxus wrightii
 Buxus yunquensis Eg.Köhler
-Selon GRIN            (18 août 2015)[9] :
+Selon GRIN            (18 août 2015) :
 Buxus balearica Lam.
 Buxus cephalantha H. Lév. &amp; Vaniot
 Buxus harlandii Hance
@@ -735,7 +755,7 @@
 Buxus stenophylla Hance
 Buxus vahlii Baill.
 Buxus wallichiana Baill.
-Selon ITIS      (18 août 2015)[10] :
+Selon ITIS      (18 août 2015) :
 Buxus balearica Lam.
 Buxus harlandii Hance
 Buxus laevigata (Sw.) Spreng.
@@ -743,7 +763,7 @@
 Buxus portoricensis Alain
 Buxus sempervirens L.
 Buxus vahlii Baill.
-Selon The Plant List            (18 août 2015)[11] :
+Selon The Plant List            (18 août 2015) :
 Buxus acuminata Müll.Arg.
 Buxus acunae Borhidi &amp; O.Muñiz
 Buxus acutata Friis
@@ -847,7 +867,7 @@
 Buxus wallichiana Baill.
 Buxus wrightii Müll.Arg.
 Buxus yunquensis Eg.Köhler
-Selon Tropicos                                           (18 août 2015)[12] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (18 août 2015) (Attention liste brute contenant possiblement des synonymes) :
 Buxus acuminata Müll. Arg.
 Buxus acunae Borhidi &amp; O. Muñiz
 Buxus acutata Friis
@@ -996,7 +1016,7 @@
 Buxus wallichiana Baill.
 Buxus wrightii Müll. Arg.
 Buxus yunquensis Eg. Köhler
-Selon NCBI  (18 août 2015)[13] :
+Selon NCBI  (18 août 2015) :
 Buxus balearica
 Buxus bodinieri
 Buxus citrifolia
@@ -1047,12 +1067,49 @@
           <t>Le buis dans les traditions populaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le numéro 37 du Journal des connaissances utiles relate en janvier 1896 une tradition des paysans du Morvan du soir de l'Épiphanie consistant à lire l'avenir de personnes présentes en interprétant les tribulations d'une feuille de buis placée sur un poêle chaud, celle-ci se gonflant et tournoyant un certain temps avant d'éclater.
-L'expression « langue de buis » désigne une Langue de bois ecclésiastique[14]. C'est une référence au « buis béni » utilisé souvent en France lors du Dimanche des Rameaux[15]. 
-Symbolique
-Dans le calendrier républicain, « buis » est le nom attribué au 16e jour du mois de pluviôse[16].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le numéro 37 du Journal des connaissances utiles relate en janvier 1896 une tradition des paysans du Morvan du soir de l'Épiphanie consistant à lire l'avenir de personnes présentes en interprétant les tribulations d'une feuille de buis placée sur un poêle chaud, celle-ci se gonflant et tournoyant un certain temps avant d'éclater.
+L'expression « langue de buis » désigne une Langue de bois ecclésiastique. C'est une référence au « buis béni » utilisé souvent en France lors du Dimanche des Rameaux. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Buis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Le buis dans les traditions populaires</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans le calendrier républicain, « buis » est le nom attribué au 16e jour du mois de pluviôse.</t>
         </is>
       </c>
     </row>
